--- a/myapp/app-server/data0.xlsx
+++ b/myapp/app-server/data0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="98">
   <si>
     <t>no</t>
   </si>
@@ -40,10 +40,10 @@
     <t>user1@test.com</t>
   </si>
   <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>010-5423-7645</t>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>010-1111-1111</t>
   </si>
   <si>
     <t>2</t>
@@ -55,64 +55,196 @@
     <t>user2@test.com</t>
   </si>
   <si>
-    <t>010-6556-5433</t>
+    <t>010-1111-2222</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>user5</t>
+  </si>
+  <si>
+    <t>user5@test.com</t>
+  </si>
+  <si>
+    <t>010-1111-5555</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>user6</t>
+  </si>
+  <si>
+    <t>user6@test.com</t>
+  </si>
+  <si>
+    <t>010-1111-6666</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>user9</t>
+  </si>
+  <si>
+    <t>user9@test.com</t>
+  </si>
+  <si>
+    <t>010-1111-9999</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>user12</t>
+  </si>
+  <si>
+    <t>user12@test.com</t>
+  </si>
+  <si>
+    <t>010-1212-1111</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>user13</t>
+  </si>
+  <si>
+    <t>user13@test.com</t>
+  </si>
+  <si>
+    <t>010-1113-1111</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>user14</t>
+  </si>
+  <si>
+    <t>user14@test.com</t>
+  </si>
+  <si>
+    <t>010-1114-1111</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>user15</t>
+  </si>
+  <si>
+    <t>user15@test.com</t>
+  </si>
+  <si>
+    <t>010-1115-2222</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>user16</t>
+  </si>
+  <si>
+    <t>user16@test.com</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>user17</t>
+  </si>
+  <si>
+    <t>user17@test.com</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>user18</t>
+  </si>
+  <si>
+    <t>user18@test.com</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>created_date</t>
+  </si>
+  <si>
+    <t>view_count</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>aaaa</t>
+  </si>
+  <si>
+    <t>2024-07-22 13:26:10</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>bbb</t>
+  </si>
+  <si>
+    <t>bbbb</t>
+  </si>
+  <si>
+    <t>2024-07-22 13:26:14</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>user3</t>
-  </si>
-  <si>
-    <t>user3@test.com</t>
-  </si>
-  <si>
-    <t>010-6544-5435</t>
+    <t>ccc</t>
+  </si>
+  <si>
+    <t>cccc</t>
+  </si>
+  <si>
+    <t>2024-07-22 13:26:19</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>user4</t>
-  </si>
-  <si>
-    <t>user4@test.com</t>
-  </si>
-  <si>
-    <t>010-7655-4534</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>create_date</t>
-  </si>
-  <si>
-    <t>view_count</t>
-  </si>
-  <si>
-    <t>board1</t>
-  </si>
-  <si>
-    <t>board123</t>
-  </si>
-  <si>
-    <t>2024-07-22 12:30:17</t>
-  </si>
-  <si>
-    <t>board2</t>
-  </si>
-  <si>
-    <t>2024-07-24 16:20:19</t>
-  </si>
-  <si>
-    <t>board3</t>
-  </si>
-  <si>
-    <t>2024-07-24 17:35:03</t>
+    <t>ddd</t>
+  </si>
+  <si>
+    <t>dddd</t>
+  </si>
+  <si>
+    <t>2024-07-22 13:26:36</t>
+  </si>
+  <si>
+    <t>eee</t>
+  </si>
+  <si>
+    <t>eeee</t>
+  </si>
+  <si>
+    <t>2024-07-24 17:19:31</t>
+  </si>
+  <si>
+    <t>fff</t>
+  </si>
+  <si>
+    <t>ffffffff</t>
+  </si>
+  <si>
+    <t>2024-07-24 17:33:41</t>
   </si>
   <si>
     <t>description</t>
@@ -127,25 +259,55 @@
     <t>members</t>
   </si>
   <si>
-    <t>project1</t>
-  </si>
-  <si>
-    <t>2024-03-25</t>
-  </si>
-  <si>
-    <t>2025-03-20</t>
-  </si>
-  <si>
-    <t>project2</t>
-  </si>
-  <si>
-    <t>2024-02-02</t>
-  </si>
-  <si>
-    <t>2025-06-05</t>
-  </si>
-  <si>
-    <t>1,2</t>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>2024-1-1</t>
+  </si>
+  <si>
+    <t>2024-2-2</t>
+  </si>
+  <si>
+    <t>1,2,5</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>2024-3-3</t>
+  </si>
+  <si>
+    <t>5,6</t>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t>2024-4-4</t>
+  </si>
+  <si>
+    <t>2,5,12</t>
+  </si>
+  <si>
+    <t>p4x</t>
+  </si>
+  <si>
+    <t>p5</t>
+  </si>
+  <si>
+    <t>2024-5-5</t>
+  </si>
+  <si>
+    <t>p6</t>
+  </si>
+  <si>
+    <t>xxx</t>
   </si>
 </sst>
 </file>
@@ -190,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -281,6 +443,142 @@
         <v>21</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -288,7 +586,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -299,16 +597,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2">
@@ -316,16 +614,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="E2" t="n" s="0">
-        <v>1.0</v>
+        <v>58</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>59</v>
       </c>
     </row>
     <row r="3">
@@ -333,33 +631,84 @@
         <v>10</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="E3" t="n" s="0">
-        <v>0.0</v>
+        <v>62</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="E4" t="n" s="0">
-        <v>0.0</v>
+      <c r="B6" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -369,7 +718,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -380,19 +729,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="F1" t="s" s="0">
-        <v>36</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2">
@@ -400,19 +749,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
@@ -420,19 +769,99 @@
         <v>10</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>43</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
